--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -492,7 +492,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t xml:space="preserve">)
+- [ ] (Optional) [Manufacturer’s Guide to Developing Consumer Product Instructions](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.cpsc.gov/s3fs-public/pdfs/guide.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - Excellent guide to writing user guides
+</t>
     </r>
   </si>
   <si>
@@ -502,11 +521,11 @@
     <t xml:space="preserve">- [ ] For Wednesday: Submit a needs assessment and task analysis for your user guide.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Describing statistical methods
-- Writing good “how to” guides for others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Documenting code </t>
+    <t xml:space="preserve">- [Describing statistical methods](../slides/07-statistical-methods.qmd)
+- Documenting code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Writing good “how to” guides for others</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Work on your user guide (due next week!)</t>
@@ -1257,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1469,7 +1488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="216.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="271.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1491,7 +1510,7 @@
       <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="1" t="s">

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -525,7 +525,7 @@
 - Documenting code</t>
   </si>
   <si>
-    <t xml:space="preserve">- Writing good “how to” guides for others</t>
+    <t xml:space="preserve">- [Writing good “how to” guides for others](../slides/07-user-guides.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Work on your user guide (due next week!)</t>
@@ -600,11 +600,11 @@
     <t xml:space="preserve">- [ ] Reading Quiz Week 8</t>
   </si>
   <si>
-    <t xml:space="preserve">- Tables and charts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Diagrams
-- IKEA-style assembly diagram assessment</t>
+    <t xml:space="preserve">- [Tables and charts](../slides/08-tables-charts.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Diagrams](.../slides/08-diagrams.qmd)
+- Peer review time – User guide</t>
   </si>
   <si>
     <t xml:space="preserve">- (not turned in) Work on analysis and relevant graphics for your business report</t>
@@ -1276,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week-plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">MLK day</t>
   </si>
   <si>
-    <t xml:space="preserve">- Introduction
+    <t xml:space="preserve">- [Introduction](../slides/01-intro.qmd)
 - Syllabus
 - [Set up Quarto portfolio site](../instructions/setup-github-portfolio.qmd)</t>
   </si>
@@ -136,6 +136,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [ETC Patterns of Organization and Methods of Development](</t>
     </r>
@@ -145,6 +146,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://wisc.pb.unizin.org/opencomp/chapter/patterns-of-organization-and-methods-of-development/</t>
     </r>
@@ -153,6 +155,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [ETC Transitions and Organization](</t>
@@ -163,6 +166,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://wisc.pb.unizin.org/opencomp/chapter/transitions-and-organization/</t>
     </r>
@@ -171,6 +175,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [ETC Reverse Outlining](</t>
@@ -181,6 +186,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://wisc.pb.unizin.org/opencomp/chapter/reverse-outlining/</t>
     </r>
@@ -189,6 +195,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [ETC Reading Games](</t>
@@ -199,6 +206,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://wisc.pb.unizin.org/opencomp/chapter/reading-games-strategies-for-reading-scholarly-sources/</t>
     </r>
@@ -207,6 +215,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -237,6 +246,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [OTC Chapter 5.1 – Process](</t>
     </r>
@@ -246,6 +256,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/134f046e-ff01-4eec-a525-2d1128957c1e</t>
     </r>
@@ -254,6 +265,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC Chapter 5.2 – Audience Analysis](</t>
@@ -264,6 +276,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/415d5b4f-758e-49ac-8149-18d4c3c4c10c</t>
     </r>
@@ -272,6 +285,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC Chapter 5.4 – Articulating Technical Information](</t>
@@ -282,6 +296,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/39c29f74-f502-4050-80b3-1162a9cdd8b0</t>
     </r>
@@ -290,6 +305,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) 
 - [ ] Read [ETC Backpacks V. Briefcases: Steps Toward Rhetorical Analysis](</t>
@@ -300,6 +316,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://wisc.pb.unizin.org/opencomp/chapter/backpacks-v-briefcases-steps-toward-rhetorical-analysis/</t>
     </r>
@@ -308,6 +325,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">), focusing primarily  on the basic components of rhetorical analysis</t>
     </r>
@@ -339,6 +357,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [UW's guide to data documentation](</t>
     </r>
@@ -348,6 +367,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://data.wisc.edu/data-literacy/document/</t>
     </r>
@@ -356,6 +376,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC Chapter 2.9 – Recommendation and Feasibility Reports](</t>
@@ -366,6 +387,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/9ed77f57-00e0-471c-8049-187cd9d00bc2</t>
     </r>
@@ -374,6 +396,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [SWHR 1.1 – 1.3 – Research Question](</t>
@@ -384,6 +407,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://ehsanx.github.io/Scientific-Writing-for-Health-Research/research-question.html</t>
     </r>
@@ -392,6 +416,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -420,6 +445,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [OTC 2.6 - Instructions](</t>
     </r>
@@ -429,6 +455,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/29783307-99ef-466b-af28-384980bfb23c</t>
     </r>
@@ -437,6 +464,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 2.7 – User  Guides](</t>
@@ -447,6 +475,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/15d19d46-ad79-4cec-bb8d-be6166bb3d8e</t>
     </r>
@@ -455,6 +484,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 2.8 – SOP and Procedures](</t>
@@ -465,6 +495,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/041bfbe4-dbc8-4eb8-ac86-13e1a33646cb</t>
     </r>
@@ -473,6 +504,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [SWHR 3 – Methods](</t>
@@ -483,6 +515,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://ehsanx.github.io/Scientific-Writing-for-Health-Research/methods-section.html</t>
     </r>
@@ -491,6 +524,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] (Optional) [Manufacturer’s Guide to Developing Consumer Product Instructions](</t>
@@ -501,6 +535,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://www.cpsc.gov/s3fs-public/pdfs/guide.pdf</t>
     </r>
@@ -509,6 +544,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) - Excellent guide to writing user guides
 </t>
@@ -539,6 +575,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [SWHR 4 - Tables and Figures](</t>
     </r>
@@ -548,6 +585,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://ehsanx.github.io/Scientific-Writing-for-Health-Research/tables-and-figures.html</t>
     </r>
@@ -556,6 +594,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 4.7 – Tables, Charts, and Graphs](</t>
@@ -566,6 +605,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/b1ca4069-52c9-49bb-9e47-510858d4e6f3</t>
     </r>
@@ -574,6 +614,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 4.8 - Graphics](</t>
@@ -584,6 +625,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/d03f3bce-d354-4976-b0cd-63a1476416c2</t>
     </r>
@@ -592,6 +634,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -637,6 +680,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [SWHR 2 - Introduction](</t>
     </r>
@@ -646,6 +690,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://ehsanx.github.io/Scientific-Writing-for-Health-Research/introduction-section.html</t>
     </r>
@@ -654,6 +699,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [SWHR 6 - Discussion](</t>
@@ -664,6 +710,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://ehsanx.github.io/Scientific-Writing-for-Health-Research/discussion-section.html</t>
     </r>
@@ -672,6 +719,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -697,6 +745,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [SWHR 7 - Title &amp; Abstract](</t>
     </r>
@@ -706,6 +755,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://ehsanx.github.io/Scientific-Writing-for-Health-Research/title-and-abstract.html</t>
     </r>
@@ -714,6 +764,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC Chapter 2.11 – Titles, Abstracts, Introductions, Conclusions](</t>
@@ -724,6 +775,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/a31e38b4-7f1f-4e9c-b8e9-9485d74d04b8</t>
     </r>
@@ -732,6 +784,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -760,6 +813,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [OTC 5.13-5.15 - Logic](</t>
     </r>
@@ -769,6 +823,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/7899c269-bf9e-4d23-a881-0d43241fb1e5</t>
     </r>
@@ -777,6 +832,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [Wikipedia’s article on Misuse of Statistics](</t>
@@ -787,6 +843,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://en.wikipedia.org/wiki/Misuse_of_statistics</t>
     </r>
@@ -795,6 +852,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [The Misuse of Statistics](</t>
@@ -805,6 +863,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://doi.org/10.1080/08989620212968</t>
     </r>
@@ -813,6 +872,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -838,6 +898,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [OTC 2.12 - Oral Presentations](</t>
     </r>
@@ -847,6 +908,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/e4660e24-17b6-4dcc-ac00-717c13bd30ff</t>
     </r>
@@ -855,6 +917,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 4.1 – Report Design](</t>
@@ -865,6 +928,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/967e506e-8d1e-4baf-bee2-8ace4ebf80f1</t>
     </r>
@@ -873,6 +937,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) and skim 4.3-4.5</t>
     </r>
@@ -899,6 +964,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Read [OTC 5.8 - Grammar, Usage, and Punctuation](</t>
     </r>
@@ -908,6 +974,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/6a5f73f0-4a2c-43f2-a493-fc7feb2bce3b</t>
     </r>
@@ -916,6 +983,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 5.9 - Spelling](</t>
@@ -926,6 +994,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/453059c2-fecc-4cfd-aaa6-54001d7d3e45</t>
     </r>
@@ -934,6 +1003,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 - [ ] Read [OTC 5.10 – Peer Review](</t>
@@ -944,6 +1014,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://alg.manifoldapp.org/read/open-technical-communication/section/c4d45556-9489-4451-8120-42545a6746b4</t>
     </r>
@@ -952,6 +1023,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -965,6 +1037,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- [ ] Bring two copies of your business report - one for Monday, one for Wednesday </t>
     </r>
@@ -974,6 +1047,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -982,6 +1056,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">you may edit in between if you want to</t>
     </r>
@@ -991,6 +1066,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1038,6 +1114,12 @@
   </si>
   <si>
     <t xml:space="preserve">Business Report Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">midnight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hwk resub deadline</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -1119,11 +1201,12 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1148,22 +1231,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1208,52 +1280,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1276,57 +1336,57 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="34.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="34.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="33.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="33.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="45.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" s="1" customFormat="true" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>45679</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1336,393 +1396,392 @@
         <v>11</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" s="1" customFormat="true" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>45684</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="204.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" s="1" customFormat="true" ht="204.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>45691</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="193.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="249.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="3" t="n">
         <v>45705</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="148.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="3" t="n">
         <v>45712</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="271.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="3" t="n">
         <v>45719</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="160.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="3" t="n">
         <v>45726</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="3" t="n">
         <v>45740</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="92.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="3" t="n">
         <v>45747</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="3" t="n">
         <v>45754</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="3" t="n">
         <v>45761</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="3" t="n">
         <v>45768</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="171.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="3" t="n">
         <v>45775</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="59.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="3" t="n">
         <v>45782</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1749,69 +1808,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>20250314</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>20250425</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>20250504</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20250310</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20250505</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1837,70 +1927,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>20250120</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>20250516</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>20250120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>20250316</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>20250322</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>20250512</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>20250516</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>119</v>
+      <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1925,72 +2015,72 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>127</v>
+      <c r="C3" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>129</v>
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>131</v>
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>133</v>
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Week-plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -646,7 +646,7 @@
     <t xml:space="preserve">- [Tables and charts](../slides/08-tables-charts.qmd)</t>
   </si>
   <si>
-    <t xml:space="preserve">- [Diagrams](.../slides/08-diagrams.qmd)
+    <t xml:space="preserve">- [Diagrams](../slides/08-diagrams.qmd)
 - Peer review time – User guide</t>
   </si>
   <si>
@@ -1336,8 +1336,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,7 +1810,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -342,7 +342,8 @@
     - Basic components of argument and rhetoric in scientific writing</t>
   </si>
   <si>
-    <t xml:space="preserve">- In class activity: Arguments in scientific and technical writing</t>
+    <t xml:space="preserve">- In class activity: [Arguments in scientific and technical writing](../activities/arguments.qmd)
+  - [Slides](../slides/05-argument-activity.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Analyze the rhetorical decisions and arguments in your research article (1 pg summary)
@@ -1336,8 +1337,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -663,11 +663,40 @@
     <t xml:space="preserve">- [ ] Reading Quiz Week 9</t>
   </si>
   <si>
-    <t xml:space="preserve">- Describing results -- level of detail and role of supplementary documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Integrating results and visual aids
-- Countering misunderstandings</t>
+    <t xml:space="preserve">- [ ] For Wednesday: On Canvas, find the [**Activity: IgNobel Results Sections** page](https://canvas.unl.edu/courses/192983/pages). Download your assigned paper and skim through it to prepare for class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Countering misconceptions in results](../slides/09-misconceptions.qmd)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [IgNobel Results Section Activity](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://canvas.unl.edu/courses/192983/pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) activity (Canvas) and class discussion</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Draft of results section of business report with relevant graphics/visual aids</t>
@@ -1337,8 +1366,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1604,7 +1633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1620,14 +1649,17 @@
       <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="92.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,22 +1670,22 @@
         <v>45747</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,25 +1696,25 @@
         <v>45754</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,22 +1725,22 @@
         <v>45761</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,22 +1751,22 @@
         <v>45768</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="171.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,25 +1777,25 @@
         <v>45775</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="59.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,16 +1806,16 @@
         <v>45782</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1793,6 +1825,7 @@
     <hyperlink ref="H3" r:id="rId3" display="- Peer Review CV/cover letter&#10;- Discuss how to give good feedback (based on [ETC](https://wisc.pb.unizin.org/opencomp/chapter/providing-good-feedback/))"/>
     <hyperlink ref="D4" r:id="rId4" display="- [ ] Read [OTC Chapter 5.6 – References](https://alg.manifoldapp.org/read/open-technical-communication/section/d9202f07-41a2-4dc9-8b29-486e164c1775)  &#10;- [ ] Read [OTC Chapter 3 - Ethics](https://alg.manifoldapp.org/read/open-technical-communication/section/8b530f4b-5942-4071-845a-0a138601da10)  &#10;- [ ] Read [ETC Annoying Ways People Use Sources](https://wisc.pb.unizin.org/opencomp/chapter/annoying-ways-people-use-sources/)&#10;- [ ] Practical Tutorial: [Connecting Rstudio + Zotero](https://gsverhoeven.github.io/post/zotero-rmarkdown-csl/)"/>
     <hyperlink ref="D10" r:id="rId5" display="- [ ] Read [SWHR 5 - Results](https://ehsanx.github.io/Scientific-Writing-for-Health-Research/results-section.html)"/>
+    <hyperlink ref="H10" r:id="rId6" display="https://canvas.unl.edu/courses/192983/pages"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1811,7 +1844,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1819,16 +1852,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,13 +1869,13 @@
         <v>20250314</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,13 +1883,13 @@
         <v>20250425</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,13 +1897,13 @@
         <v>20250504</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1879,13 +1912,13 @@
         <v>20250310</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1894,13 +1927,13 @@
         <v>20250505</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1922,7 +1955,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1933,21 +1966,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250120</v>
@@ -1958,7 +1991,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250120</v>
@@ -1966,7 +1999,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20250316</v>
@@ -1977,7 +2010,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20250512</v>
@@ -1988,10 +2021,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2045,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2020,68 +2053,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -669,34 +669,7 @@
     <t xml:space="preserve">- [Countering misconceptions in results](../slides/09-misconceptions.qmd)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- [IgNobel Results Section Activity](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://canvas.unl.edu/courses/192983/pages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) activity (Canvas) and class discussion</t>
-    </r>
+    <t xml:space="preserve">- [IgNobel Results Section Activity](https://canvas.unl.edu/courses/192983/pages) activity (Canvas) and class discussion</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Draft of results section of business report with relevant graphics/visual aids</t>
@@ -758,10 +731,11 @@
     <t xml:space="preserve">- [ ] Reading Quiz Week 10</t>
   </si>
   <si>
-    <t xml:space="preserve">- Introductions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Conclusions</t>
+    <t xml:space="preserve">- [Conclusion](../slides/10-conclusion.qmd)
+- [Quarto Formatting](../slides/10-quarto-features.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Introductions](../slides/10-intro.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Draft of introduction and conclusion sections of business report</t>
@@ -1367,7 +1341,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1655,7 +1629,7 @@
       <c r="G10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1825,7 +1799,7 @@
     <hyperlink ref="H3" r:id="rId3" display="- Peer Review CV/cover letter&#10;- Discuss how to give good feedback (based on [ETC](https://wisc.pb.unizin.org/opencomp/chapter/providing-good-feedback/))"/>
     <hyperlink ref="D4" r:id="rId4" display="- [ ] Read [OTC Chapter 5.6 – References](https://alg.manifoldapp.org/read/open-technical-communication/section/d9202f07-41a2-4dc9-8b29-486e164c1775)  &#10;- [ ] Read [OTC Chapter 3 - Ethics](https://alg.manifoldapp.org/read/open-technical-communication/section/8b530f4b-5942-4071-845a-0a138601da10)  &#10;- [ ] Read [ETC Annoying Ways People Use Sources](https://wisc.pb.unizin.org/opencomp/chapter/annoying-ways-people-use-sources/)&#10;- [ ] Practical Tutorial: [Connecting Rstudio + Zotero](https://gsverhoeven.github.io/post/zotero-rmarkdown-csl/)"/>
     <hyperlink ref="D10" r:id="rId5" display="- [ ] Read [SWHR 5 - Results](https://ehsanx.github.io/Scientific-Writing-for-Health-Research/results-section.html)"/>
-    <hyperlink ref="H10" r:id="rId6" display="https://canvas.unl.edu/courses/192983/pages"/>
+    <hyperlink ref="H10" r:id="rId6" display="- [IgNobel Results Section Activity](https://canvas.unl.edu/courses/192983/pages) activity (Canvas) and class discussion"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -800,10 +800,11 @@
     <t xml:space="preserve">- [ ] For Wednesday: Find 2 articles about how to write an executive summary, one from an educational resource (a university) and one from a business or professional resource (e.g. LinkedIn, Adobe, etc.). What do they have in common? What recommendations conflict?</t>
   </si>
   <si>
-    <t xml:space="preserve">- Abstracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Executive Summaries - Class discussion</t>
+    <t xml:space="preserve">- [Abstracts](../slides/11-abstract.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Executive Summaries](../slides/11-exec-summary.qmd)
+- Class Discussion</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] Draft of executive summary of business report</t>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -886,10 +886,7 @@
     <t xml:space="preserve">- [ ] Reading Quiz Week 12</t>
   </si>
   <si>
-    <t xml:space="preserve">- Logical fallacies in the workplace in-class activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Statistical misunderstandings and how to counter them -- class discussion</t>
+    <t xml:space="preserve">- [Case Study - Statistical Ethics](../slides/12-ethics.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- (not turned in) Revise business report sections (methods, results, intro, conclusion, executive summary) and prepare to integrate them into a full report</t>
@@ -1341,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1692,7 +1689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1712,10 +1709,10 @@
         <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,22 +1723,22 @@
         <v>45768</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="171.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,25 +1749,25 @@
         <v>45775</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="59.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,16 +1778,16 @@
         <v>45782</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1816,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1827,16 +1824,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,13 +1841,13 @@
         <v>20250314</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,13 +1855,13 @@
         <v>20250425</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,13 +1869,13 @@
         <v>20250504</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1887,13 +1884,13 @@
         <v>20250310</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1902,13 +1899,13 @@
         <v>20250505</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1930,7 +1927,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1941,21 +1938,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20250120</v>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20250120</v>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20250316</v>
@@ -1985,7 +1982,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20250512</v>
@@ -1996,10 +1993,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2017,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2028,68 +2025,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -948,7 +948,7 @@
     <t xml:space="preserve">- [ ] Reading Quiz Week 13</t>
   </si>
   <si>
-    <t xml:space="preserve">- Business and Technical Reports -- general formatting and concerns</t>
+    <t xml:space="preserve">- [Presentations](../slides/13-reports-presentations.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- In class activity: Analyzing government reports</t>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
